--- a/DQ/RMD/DQ资料2017-11-27.xlsx
+++ b/DQ/RMD/DQ资料2017-11-27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8100" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="problem" sheetId="8" r:id="rId8"/>
     <sheet name="intend" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">intend!$A$1:$D$6</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>SEC-GUSTWIFi</t>
   </si>
@@ -335,6 +336,9 @@
   </si>
   <si>
     <t>恢复备份项目</t>
+  </si>
+  <si>
+    <t>11.30</t>
   </si>
   <si>
     <t>/rmds-web/src/main/java/com/infosys/rmds/controller/RuleFaultController.java</t>
@@ -381,6 +385,19 @@
     <t>rmdsweb-zh_CN.min</t>
   </si>
   <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>rmds-parent\rmds-web\src\main\java\com\infosys\rmds\controller\MiddleDotController.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改中间点 常用函数不显示
+</t>
+  </si>
+  <si>
+    <t>权限控制不了</t>
+  </si>
+  <si>
     <t>editor</t>
   </si>
   <si>
@@ -517,6 +534,57 @@
   </si>
   <si>
     <t>修改</t>
+  </si>
+  <si>
+    <t>dotsel</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>middledotadd</t>
+  </si>
+  <si>
+    <t>增加</t>
+  </si>
+  <si>
+    <t>middledot</t>
+  </si>
+  <si>
+    <t>totaldot</t>
+  </si>
+  <si>
+    <t>统计点管理</t>
+  </si>
+  <si>
+    <t>/data_totaldot</t>
+  </si>
+  <si>
+    <t>datamanage</t>
+  </si>
+  <si>
+    <t>doimport</t>
+  </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>doexport</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>middledoimport</t>
+  </si>
+  <si>
+    <t>middledoexport</t>
   </si>
 </sst>
 </file>
@@ -524,10 +592,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -546,16 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +629,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -585,98 +743,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,187 +783,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,11 +1031,63 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,70 +1111,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,140 +1146,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1230,12 +1301,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,6 +1325,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,6 +1348,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1622,8 +1702,8 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1636,7 +1716,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1644,7 +1724,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18"/>
+      <c r="A2" s="21"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1667,7 +1747,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1677,7 +1757,7 @@
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="20">
+      <c r="C8" s="23">
         <v>22</v>
       </c>
       <c r="E8" t="s">
@@ -1717,7 +1797,7 @@
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" t="s">
+      <c r="E17" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1826,6 +1906,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" display="https://github.com/xukai0218/gitRepository"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1837,8 +1920,8 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1849,13 +1932,274 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>90</v>
+      </c>
+      <c r="B1">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42618.4084259259</v>
+      </c>
+      <c r="N1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="1">
+        <v>42618.4084259259</v>
+      </c>
+      <c r="P1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>42618.4084259259</v>
+      </c>
+      <c r="N5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="1">
+        <v>42618.4084259259</v>
+      </c>
+      <c r="P5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>96</v>
+      </c>
+      <c r="B9">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>42618.4084259259</v>
+      </c>
+      <c r="N9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="1">
+        <v>42618.4084259259</v>
+      </c>
+      <c r="P9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>620</v>
+      </c>
+      <c r="B15">
+        <v>620</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>621</v>
+      </c>
+      <c r="B16">
+        <v>621</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>622</v>
+      </c>
+      <c r="B17">
+        <v>622</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>623</v>
+      </c>
+      <c r="B18">
+        <v>623</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1869,8 +2213,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1890,12 +2234,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1956,7 +2300,7 @@
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2054,7 +2398,7 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2202,122 +2546,138 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="84.875" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="12" max="12" width="13.375" customWidth="1"/>
     <col min="13" max="13" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="15"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>11.3</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="L2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="F2" s="7"/>
+      <c r="L2" s="18" t="s">
         <v>107</v>
       </c>
+      <c r="M2" s="18" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-      <c r="L3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="7"/>
+      <c r="L3" s="18" t="s">
         <v>111</v>
       </c>
+      <c r="M3" s="18" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-      <c r="L4" s="15" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="L4" s="18" t="s">
         <v>114</v>
       </c>
+      <c r="M4" s="18" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="2:4">
+      <c r="B11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2343,127 +2703,127 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2838,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -2489,7 +2849,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2497,25 +2857,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2896,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -2544,63 +2904,63 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>155</v>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>155</v>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D6">

--- a/DQ/RMD/DQ资料2017-11-27.xlsx
+++ b/DQ/RMD/DQ资料2017-11-27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>SEC-GUSTWIFi</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>winscp</t>
+  </si>
+  <si>
+    <t>‎60-14-B3-BF-C0-AB</t>
   </si>
   <si>
     <t>添加编辑3</t>
@@ -592,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -623,16 +626,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,16 +661,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,8 +676,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,6 +693,21 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -697,40 +731,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,9 +745,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,13 +786,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,169 +918,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,23 +1035,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,22 +1065,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1086,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1106,56 +1129,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,112 +1170,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,13 +1347,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1702,16 +1705,16 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1747,7 +1750,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1757,7 +1760,7 @@
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>22</v>
       </c>
       <c r="E8" t="s">
@@ -1797,7 +1800,7 @@
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1816,35 +1819,43 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="24"/>
+    </row>
     <row r="27" spans="1:7">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1852,54 +1863,54 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1924,21 +1935,21 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="1" max="2" width="9.87962962962963" customWidth="1"/>
+    <col min="3" max="3" width="5.12962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1956,14 +1967,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="16.8796296296296" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="14.8796296296296" customWidth="1"/>
+    <col min="15" max="15" width="14.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1974,13 +1985,13 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>169</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
       </c>
       <c r="I1">
         <v>3</v>
@@ -1989,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -1998,13 +2009,13 @@
         <v>42618.4084259259</v>
       </c>
       <c r="N1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O1" s="1">
         <v>42618.4084259259</v>
       </c>
       <c r="P1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2015,13 +2026,13 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
         <v>173</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -2030,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2039,13 +2050,13 @@
         <v>42618.4084259259</v>
       </c>
       <c r="N5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O5" s="1">
         <v>42618.4084259259</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2056,16 +2067,16 @@
         <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
         <v>176</v>
       </c>
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2074,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2083,13 +2094,13 @@
         <v>42618.4084259259</v>
       </c>
       <c r="N9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O9" s="1">
         <v>42618.4084259259</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2100,13 +2111,13 @@
         <v>620</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
         <v>180</v>
-      </c>
-      <c r="E15" t="s">
-        <v>179</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -2115,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2135,13 +2146,13 @@
         <v>621</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
         <v>182</v>
-      </c>
-      <c r="E16" t="s">
-        <v>181</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -2150,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2170,16 +2181,16 @@
         <v>622</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2190,16 +2201,16 @@
         <v>623</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2217,17 +2228,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="62.375" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="62.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1">
         <v>123</v>
@@ -2235,7 +2246,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2245,135 +2256,135 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -2401,21 +2412,21 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="43.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="9.37962962962963" customWidth="1"/>
+    <col min="5" max="5" width="14.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2423,65 +2434,65 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2500,19 +2511,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2530,11 +2541,11 @@
       <selection activeCell="B6" sqref="B5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2552,36 +2563,36 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="84.875" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="11.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="84.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="25.1296296296296" customWidth="1"/>
+    <col min="12" max="12" width="13.3796296296296" customWidth="1"/>
+    <col min="13" max="13" width="30.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M1" s="18"/>
     </row>
@@ -2590,64 +2601,64 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" s="7"/>
       <c r="L2" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="12"/>
       <c r="B3" s="10"/>
       <c r="C3" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7"/>
       <c r="L3" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="12"/>
       <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
       <c r="L4" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12"/>
       <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="11"/>
@@ -2657,7 +2668,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="11"/>
@@ -2665,18 +2676,18 @@
     </row>
     <row r="11" ht="17" customHeight="1" spans="2:4">
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2700,130 +2711,130 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2841,15 +2852,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="39.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2857,25 +2868,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2893,21 +2904,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="29.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:4">
@@ -2915,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:4">
@@ -2929,19 +2940,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -2949,7 +2960,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5"/>
@@ -2957,7 +2968,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>

--- a/DQ/RMD/DQ资料2017-11-27.xlsx
+++ b/DQ/RMD/DQ资料2017-11-27.xlsx
@@ -646,6 +646,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -663,75 +717,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,9 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,187 +786,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,31 +1032,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,6 +1052,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,17 +1080,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,6 +1120,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1137,149 +1137,149 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,9 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1706,7 +1703,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1825,7 +1822,7 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="16"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
